--- a/Code/Results/res_bus/vm_pu.xlsx
+++ b/Code/Results/res_bus/vm_pu.xlsx
@@ -417,552 +417,912 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>1.05</v>
+      </c>
+      <c r="C2">
+        <v>0.9584483529348087</v>
+      </c>
+      <c r="D2">
+        <v>0.9855021302359518</v>
+      </c>
+      <c r="E2">
+        <v>0.9674641479476159</v>
+      </c>
+      <c r="F2">
+        <v>0.9293225045445663</v>
+      </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.05</v>
+        <v>1.030311226548108</v>
       </c>
       <c r="J2">
-        <v>1.009380341447687</v>
+        <v>0.9819471009265013</v>
       </c>
       <c r="K2">
-        <v>1.02253652903466</v>
+        <v>0.9971672080651706</v>
       </c>
       <c r="L2">
-        <v>1.004123867722867</v>
+        <v>0.9793961721171767</v>
       </c>
       <c r="M2">
-        <v>0.9769803853386904</v>
+        <v>0.9418629691489703</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>1.05</v>
+      </c>
+      <c r="C3">
+        <v>0.9706497244047197</v>
+      </c>
+      <c r="D3">
+        <v>0.9949150197488773</v>
+      </c>
+      <c r="E3">
+        <v>0.9780820343366293</v>
+      </c>
+      <c r="F3">
+        <v>0.9452002625583125</v>
+      </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.05</v>
+        <v>1.034465343064478</v>
       </c>
       <c r="J3">
-        <v>1.014011333177099</v>
+        <v>0.9919737936820995</v>
       </c>
       <c r="K3">
-        <v>1.025904535973617</v>
+        <v>1.005613379990295</v>
       </c>
       <c r="L3">
-        <v>1.008875206625034</v>
+        <v>0.9890032599271316</v>
       </c>
       <c r="M3">
-        <v>0.9848163918702177</v>
+        <v>0.9565859002114416</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>1.05</v>
+      </c>
+      <c r="C4">
+        <v>0.9781351793452007</v>
+      </c>
+      <c r="D4">
+        <v>1.000693896848053</v>
+      </c>
+      <c r="E4">
+        <v>0.9845980165487557</v>
+      </c>
+      <c r="F4">
+        <v>0.9549201151871431</v>
+      </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.05</v>
+        <v>1.036992108816931</v>
       </c>
       <c r="J4">
-        <v>1.01695174611414</v>
+        <v>0.9981152228703128</v>
       </c>
       <c r="K4">
-        <v>1.028043533529756</v>
+        <v>1.010783954354648</v>
       </c>
       <c r="L4">
-        <v>1.011883070197655</v>
+        <v>0.9948859544474211</v>
       </c>
       <c r="M4">
-        <v>0.9897930447743657</v>
+        <v>0.9655948894583619</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>1.05</v>
+      </c>
+      <c r="C5">
+        <v>0.9811938147937375</v>
+      </c>
+      <c r="D5">
+        <v>1.003055903250167</v>
+      </c>
+      <c r="E5">
+        <v>0.987260819687118</v>
+      </c>
+      <c r="F5">
+        <v>0.9588879826722939</v>
+      </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.05</v>
+        <v>1.038019261927398</v>
       </c>
       <c r="J5">
-        <v>1.018175171563755</v>
+        <v>1.000622272458208</v>
       </c>
       <c r="K5">
-        <v>1.028933602324751</v>
+        <v>1.012893907439006</v>
       </c>
       <c r="L5">
-        <v>1.013132473242723</v>
+        <v>0.9972869374221054</v>
       </c>
       <c r="M5">
-        <v>0.9918641101975321</v>
+        <v>0.9692714908538137</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>1.05</v>
+      </c>
+      <c r="C6">
+        <v>0.9817024533519729</v>
+      </c>
+      <c r="D6">
+        <v>1.003448728361516</v>
+      </c>
+      <c r="E6">
+        <v>0.9877036463588168</v>
+      </c>
+      <c r="F6">
+        <v>0.9595476339635669</v>
+      </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.05</v>
+        <v>1.038189758197654</v>
       </c>
       <c r="J6">
-        <v>1.018379863908722</v>
+        <v>1.001039042129263</v>
       </c>
       <c r="K6">
-        <v>1.029082524912694</v>
+        <v>1.013244615583668</v>
       </c>
       <c r="L6">
-        <v>1.013341391092075</v>
+        <v>0.997686047603373</v>
       </c>
       <c r="M6">
-        <v>0.9922106496663695</v>
+        <v>0.9698826528835146</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>1.05</v>
+      </c>
+      <c r="C7">
+        <v>0.9781763839838064</v>
+      </c>
+      <c r="D7">
+        <v>1.000725714391077</v>
+      </c>
+      <c r="E7">
+        <v>0.9846338877011357</v>
+      </c>
+      <c r="F7">
+        <v>0.9549735820594123</v>
+      </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.05</v>
+        <v>1.037005967410858</v>
       </c>
       <c r="J7">
-        <v>1.01696814266805</v>
+        <v>0.9981490063742641</v>
       </c>
       <c r="K7">
-        <v>1.028055462065127</v>
+        <v>1.010812390040263</v>
       </c>
       <c r="L7">
-        <v>1.011899823064025</v>
+        <v>0.9949183104728457</v>
       </c>
       <c r="M7">
-        <v>0.9898207997479945</v>
+        <v>0.9656444359673054</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>1.05</v>
+      </c>
+      <c r="C8">
+        <v>0.9626631606695668</v>
+      </c>
+      <c r="D8">
+        <v>0.9887526067434366</v>
+      </c>
+      <c r="E8">
+        <v>0.9711314188413885</v>
+      </c>
+      <c r="F8">
+        <v>0.9348126731630805</v>
+      </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.05</v>
+        <v>1.031750818426121</v>
       </c>
       <c r="J8">
-        <v>1.010957480646382</v>
+        <v>0.9854127901065353</v>
       </c>
       <c r="K8">
-        <v>1.023683417990382</v>
+        <v>1.000087117794564</v>
       </c>
       <c r="L8">
-        <v>1.005743909441543</v>
+        <v>0.9827171729055607</v>
       </c>
       <c r="M8">
-        <v>0.9796488455290865</v>
+        <v>0.9469545705595352</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>1.05</v>
+      </c>
+      <c r="C9">
+        <v>0.9316311116654397</v>
+      </c>
+      <c r="D9">
+        <v>0.9648553013414848</v>
+      </c>
+      <c r="E9">
+        <v>0.9441492316796402</v>
+      </c>
+      <c r="F9">
+        <v>0.8942193455640146</v>
+      </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.05</v>
+        <v>1.021057184722024</v>
       </c>
       <c r="J9">
-        <v>0.9999008862716761</v>
+        <v>0.9598527595003981</v>
       </c>
       <c r="K9">
-        <v>1.015646616050353</v>
+        <v>0.9785455307592807</v>
       </c>
       <c r="L9">
-        <v>0.9943458578559694</v>
+        <v>0.9582184718385207</v>
       </c>
       <c r="M9">
-        <v>0.9609414454317229</v>
+        <v>0.9092984532138478</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>1.05</v>
+      </c>
+      <c r="C10">
+        <v>0.907397701900307</v>
+      </c>
+      <c r="D10">
+        <v>0.9462640807014276</v>
+      </c>
+      <c r="E10">
+        <v>0.923118321145717</v>
+      </c>
+      <c r="F10">
+        <v>0.8621588305499388</v>
+      </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.05</v>
+        <v>1.012587897571456</v>
       </c>
       <c r="J10">
-        <v>0.9921633551917589</v>
+        <v>0.9398365673058284</v>
       </c>
       <c r="K10">
-        <v>1.010028438972729</v>
+        <v>0.9616764151829899</v>
       </c>
       <c r="L10">
-        <v>0.9863144492971765</v>
+        <v>0.9390298109139052</v>
       </c>
       <c r="M10">
-        <v>0.9478431523440026</v>
+        <v>0.8795597137628783</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>1.05</v>
+      </c>
+      <c r="C11">
+        <v>0.8956943323388814</v>
+      </c>
+      <c r="D11">
+        <v>0.9373131531172861</v>
+      </c>
+      <c r="E11">
+        <v>0.9129780194690182</v>
+      </c>
+      <c r="F11">
+        <v>0.8465235088581691</v>
+      </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.05</v>
+        <v>1.008472014280511</v>
       </c>
       <c r="J11">
-        <v>0.9887123435833944</v>
+        <v>0.9301568154135416</v>
       </c>
       <c r="K11">
-        <v>1.007524675426825</v>
+        <v>0.9535226828955768</v>
       </c>
       <c r="L11">
-        <v>0.9827182488701625</v>
+        <v>0.929751460199819</v>
       </c>
       <c r="M11">
-        <v>0.9419972684619906</v>
+        <v>0.8650645461225331</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>1.05</v>
+      </c>
+      <c r="C12">
+        <v>0.8911172841029515</v>
+      </c>
+      <c r="D12">
+        <v>0.9338179598209763</v>
+      </c>
+      <c r="E12">
+        <v>0.9090155814828322</v>
+      </c>
+      <c r="F12">
+        <v>0.8403770291737926</v>
+      </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.05</v>
+        <v>1.006858792069812</v>
       </c>
       <c r="J12">
-        <v>0.9874140581021776</v>
+        <v>0.9263692143795209</v>
       </c>
       <c r="K12">
-        <v>1.006583099523848</v>
+        <v>0.9503333119458934</v>
       </c>
       <c r="L12">
-        <v>0.9813631248172686</v>
+        <v>0.9261213977907007</v>
       </c>
       <c r="M12">
-        <v>0.9397972095245892</v>
+        <v>0.8593684718465312</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>1.05</v>
+      </c>
+      <c r="C13">
+        <v>0.8921104809512194</v>
+      </c>
+      <c r="D13">
+        <v>0.9345761322968363</v>
+      </c>
+      <c r="E13">
+        <v>0.9098752456042147</v>
+      </c>
+      <c r="F13">
+        <v>0.8417123933540499</v>
+      </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.05</v>
+        <v>1.007209006647755</v>
       </c>
       <c r="J13">
-        <v>0.9876933106609554</v>
+        <v>0.9271911939522602</v>
       </c>
       <c r="K13">
-        <v>1.006785609530771</v>
+        <v>0.9510254047812802</v>
       </c>
       <c r="L13">
-        <v>0.9816547047738375</v>
+        <v>0.9269091610735593</v>
       </c>
       <c r="M13">
-        <v>0.9402704680480061</v>
+        <v>0.860605862776388</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>1.05</v>
+      </c>
+      <c r="C14">
+        <v>0.8953210341157214</v>
+      </c>
+      <c r="D14">
+        <v>0.937027972615743</v>
+      </c>
+      <c r="E14">
+        <v>0.9126547758349005</v>
+      </c>
+      <c r="F14">
+        <v>0.8460229098850993</v>
+      </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.05</v>
+        <v>1.008340510983428</v>
       </c>
       <c r="J14">
-        <v>0.9886053700711493</v>
+        <v>0.9298479431062286</v>
       </c>
       <c r="K14">
-        <v>1.007447085920259</v>
+        <v>0.9532625694901026</v>
       </c>
       <c r="L14">
-        <v>0.9826066377271859</v>
+        <v>0.9294554232320059</v>
       </c>
       <c r="M14">
-        <v>0.9418160102998424</v>
+        <v>0.8646005790482725</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>1.05</v>
+      </c>
+      <c r="C15">
+        <v>0.8972669140676258</v>
+      </c>
+      <c r="D15">
+        <v>0.9385147491678759</v>
+      </c>
+      <c r="E15">
+        <v>0.9143398762245681</v>
+      </c>
+      <c r="F15">
+        <v>0.8486310345940273</v>
+      </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.05</v>
+        <v>1.009025853947287</v>
       </c>
       <c r="J15">
-        <v>0.989165101754543</v>
+        <v>0.9314579132077556</v>
       </c>
       <c r="K15">
-        <v>1.00785308237877</v>
+        <v>0.9546184359417142</v>
       </c>
       <c r="L15">
-        <v>0.9831905445497834</v>
+        <v>0.9309985112898104</v>
       </c>
       <c r="M15">
-        <v>0.9427643969295818</v>
+        <v>0.8670179460468076</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>1.05</v>
+      </c>
+      <c r="C16">
+        <v>0.9081452452064335</v>
+      </c>
+      <c r="D16">
+        <v>0.9468364630148371</v>
+      </c>
+      <c r="E16">
+        <v>0.9237664178091097</v>
+      </c>
+      <c r="F16">
+        <v>0.8631538301876132</v>
+      </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.05</v>
+        <v>1.012850303660755</v>
       </c>
       <c r="J16">
-        <v>0.9923901590224983</v>
+        <v>0.9404545920510712</v>
       </c>
       <c r="K16">
-        <v>1.01019303450879</v>
+        <v>0.962197127173004</v>
       </c>
       <c r="L16">
-        <v>0.9865504931561154</v>
+        <v>0.9396222526095704</v>
       </c>
       <c r="M16">
-        <v>0.9482272495437312</v>
+        <v>0.8804823864989494</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>1.05</v>
+      </c>
+      <c r="C17">
+        <v>0.9146165996200242</v>
+      </c>
+      <c r="D17">
+        <v>0.9517945839507459</v>
+      </c>
+      <c r="E17">
+        <v>0.9293787354729477</v>
+      </c>
+      <c r="F17">
+        <v>0.8717502251078336</v>
+      </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.05</v>
+        <v>1.015119142697466</v>
       </c>
       <c r="J17">
-        <v>0.9943853338334759</v>
+        <v>0.9458033114859983</v>
       </c>
       <c r="K17">
-        <v>1.011641200837964</v>
+        <v>0.9667041358556328</v>
       </c>
       <c r="L17">
-        <v>0.9886253352728147</v>
+        <v>0.9447497140589678</v>
       </c>
       <c r="M17">
-        <v>0.9516056506637882</v>
+        <v>0.888454828057236</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>1.05</v>
+      </c>
+      <c r="C18">
+        <v>0.9182784836108141</v>
+      </c>
+      <c r="D18">
+        <v>0.9546025835734198</v>
+      </c>
+      <c r="E18">
+        <v>0.9325559445006</v>
+      </c>
+      <c r="F18">
+        <v>0.87660157059847</v>
+      </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.05</v>
+        <v>1.016400650230964</v>
       </c>
       <c r="J18">
-        <v>0.995539473774168</v>
+        <v>0.9488287648231966</v>
       </c>
       <c r="K18">
-        <v>1.012479100894292</v>
+        <v>0.9692538167337013</v>
       </c>
       <c r="L18">
-        <v>0.9898242286804744</v>
+        <v>0.9476501012508087</v>
       </c>
       <c r="M18">
-        <v>0.9535595834164431</v>
+        <v>0.8929546753365882</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
+      <c r="B19">
+        <v>1.05</v>
+      </c>
+      <c r="C19">
+        <v>0.9195091344571956</v>
+      </c>
+      <c r="D19">
+        <v>0.9555466453416136</v>
+      </c>
+      <c r="E19">
+        <v>0.9336239316254485</v>
+      </c>
+      <c r="F19">
+        <v>0.8782299522448411</v>
+      </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.05</v>
+        <v>1.016830922557188</v>
       </c>
       <c r="J19">
-        <v>0.9959314129025754</v>
+        <v>0.9498453300705116</v>
       </c>
       <c r="K19">
-        <v>1.01276367685888</v>
+        <v>0.970110565379452</v>
       </c>
       <c r="L19">
-        <v>0.9902311427970863</v>
+        <v>0.9486246520406572</v>
       </c>
       <c r="M19">
-        <v>0.9542230733826393</v>
+        <v>0.8944651589477618</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
+      <c r="B20">
+        <v>1.05</v>
+      </c>
+      <c r="C20">
+        <v>0.9139342339186914</v>
+      </c>
+      <c r="D20">
+        <v>0.9512715216781357</v>
+      </c>
+      <c r="E20">
+        <v>0.9287867965955299</v>
+      </c>
+      <c r="F20">
+        <v>0.8708451974178761</v>
+      </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.05</v>
+        <v>1.014880149997224</v>
       </c>
       <c r="J20">
-        <v>0.9941722736757586</v>
+        <v>0.9452394438435265</v>
       </c>
       <c r="K20">
-        <v>1.011486534846902</v>
+        <v>0.966228964483682</v>
       </c>
       <c r="L20">
-        <v>0.9884039064432852</v>
+        <v>0.9442091610324973</v>
       </c>
       <c r="M20">
-        <v>0.9512449173857795</v>
+        <v>0.8876154188219648</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
+      <c r="B21">
+        <v>1.05</v>
+      </c>
+      <c r="C21">
+        <v>0.8943824422579156</v>
+      </c>
+      <c r="D21">
+        <v>0.9363110282145427</v>
+      </c>
+      <c r="E21">
+        <v>0.9118420934833724</v>
+      </c>
+      <c r="F21">
+        <v>0.8447637008236291</v>
+      </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.05</v>
+        <v>1.008009814029496</v>
       </c>
       <c r="J21">
-        <v>0.988337255986272</v>
+        <v>0.9290713073058597</v>
       </c>
       <c r="K21">
-        <v>1.007252624546612</v>
+        <v>0.952608553923681</v>
       </c>
       <c r="L21">
-        <v>0.9823268640163793</v>
+        <v>0.9287110697000825</v>
       </c>
       <c r="M21">
-        <v>0.9413616982958274</v>
+        <v>0.8634335531885015</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
+      <c r="B22">
+        <v>1.05</v>
+      </c>
+      <c r="C22">
+        <v>0.880717593945458</v>
+      </c>
+      <c r="D22">
+        <v>0.9258883659122696</v>
+      </c>
+      <c r="E22">
+        <v>0.9000198350212724</v>
+      </c>
+      <c r="F22">
+        <v>0.8263376754712235</v>
+      </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.05</v>
+        <v>1.003187109790833</v>
       </c>
       <c r="J22">
-        <v>0.9845727554554186</v>
+        <v>0.9177595056695752</v>
       </c>
       <c r="K22">
-        <v>1.004523161668893</v>
+        <v>0.9430862826721248</v>
       </c>
       <c r="L22">
-        <v>0.9783932386183757</v>
+        <v>0.9178711619770821</v>
       </c>
       <c r="M22">
-        <v>0.934980611952405</v>
+        <v>0.8463636624432069</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
+      <c r="B23">
+        <v>1.05</v>
+      </c>
+      <c r="C23">
+        <v>0.8881138298323769</v>
+      </c>
+      <c r="D23">
+        <v>0.9315261411962814</v>
+      </c>
+      <c r="E23">
+        <v>0.9064165031559047</v>
+      </c>
+      <c r="F23">
+        <v>0.8363332608366524</v>
+      </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.05</v>
+        <v>1.005799242324163</v>
       </c>
       <c r="J23">
-        <v>0.9865779444446021</v>
+        <v>0.9238832334969861</v>
       </c>
       <c r="K23">
-        <v>1.005976817227817</v>
+        <v>0.9482403705775079</v>
       </c>
       <c r="L23">
-        <v>0.9804897687761969</v>
+        <v>0.9237390010982309</v>
       </c>
       <c r="M23">
-        <v>0.9383800827066059</v>
+        <v>0.8556218169788331</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
+      <c r="B24">
+        <v>1.05</v>
+      </c>
+      <c r="C24">
+        <v>0.9142429106618803</v>
+      </c>
+      <c r="D24">
+        <v>0.9515081280947616</v>
+      </c>
+      <c r="E24">
+        <v>0.9290545632355585</v>
+      </c>
+      <c r="F24">
+        <v>0.8712546382745128</v>
+      </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.05</v>
+        <v>1.014988268704023</v>
       </c>
       <c r="J24">
-        <v>0.9942685759966534</v>
+        <v>0.9454945201734463</v>
       </c>
       <c r="K24">
-        <v>1.011556442670997</v>
+        <v>0.9664439163461324</v>
       </c>
       <c r="L24">
-        <v>0.9885039954908673</v>
+        <v>0.9444536902977833</v>
       </c>
       <c r="M24">
-        <v>0.951407968441113</v>
+        <v>0.8879951715297911</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
+      <c r="B25">
+        <v>1.05</v>
+      </c>
+      <c r="C25">
+        <v>0.9401828664177465</v>
+      </c>
+      <c r="D25">
+        <v>0.9714320536376383</v>
+      </c>
+      <c r="E25">
+        <v>0.9515801131224424</v>
+      </c>
+      <c r="F25">
+        <v>0.9054497260859371</v>
+      </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.05</v>
+        <v>1.024024040950465</v>
       </c>
       <c r="J25">
-        <v>1.002819622773542</v>
+        <v>0.9669057788575415</v>
       </c>
       <c r="K25">
-        <v>1.017767310760394</v>
+        <v>0.9844906534933383</v>
       </c>
       <c r="L25">
-        <v>0.9973638522228564</v>
+        <v>0.9649796653326759</v>
       </c>
       <c r="M25">
-        <v>0.9658802843445219</v>
+        <v>0.9197175616023169</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/res_bus/vm_pu.xlsx
+++ b/Code/Results/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9584483529348087</v>
+        <v>0.9584483529348066</v>
       </c>
       <c r="D2">
-        <v>0.9855021302359518</v>
+        <v>0.9855021302359501</v>
       </c>
       <c r="E2">
-        <v>0.9674641479476159</v>
+        <v>0.9674641479476135</v>
       </c>
       <c r="F2">
-        <v>0.9293225045445663</v>
+        <v>0.9293225045445632</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.030311226548108</v>
+        <v>1.030311226548107</v>
       </c>
       <c r="J2">
-        <v>0.9819471009265013</v>
+        <v>0.9819471009264992</v>
       </c>
       <c r="K2">
-        <v>0.9971672080651706</v>
+        <v>0.9971672080651687</v>
       </c>
       <c r="L2">
-        <v>0.9793961721171767</v>
+        <v>0.9793961721171743</v>
       </c>
       <c r="M2">
-        <v>0.9418629691489703</v>
+        <v>0.9418629691489674</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9706497244047197</v>
+        <v>0.9706497244047185</v>
       </c>
       <c r="D3">
-        <v>0.9949150197488773</v>
+        <v>0.9949150197488759</v>
       </c>
       <c r="E3">
-        <v>0.9780820343366293</v>
+        <v>0.9780820343366284</v>
       </c>
       <c r="F3">
-        <v>0.9452002625583125</v>
+        <v>0.9452002625583111</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.034465343064478</v>
+        <v>1.034465343064477</v>
       </c>
       <c r="J3">
-        <v>0.9919737936820995</v>
+        <v>0.9919737936820984</v>
       </c>
       <c r="K3">
-        <v>1.005613379990295</v>
+        <v>1.005613379990294</v>
       </c>
       <c r="L3">
-        <v>0.9890032599271316</v>
+        <v>0.9890032599271307</v>
       </c>
       <c r="M3">
-        <v>0.9565859002114416</v>
+        <v>0.9565859002114402</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,13 +500,13 @@
         <v>0.9781351793452007</v>
       </c>
       <c r="D4">
-        <v>1.000693896848053</v>
+        <v>1.000693896848054</v>
       </c>
       <c r="E4">
-        <v>0.9845980165487557</v>
+        <v>0.9845980165487556</v>
       </c>
       <c r="F4">
-        <v>0.9549201151871431</v>
+        <v>0.9549201151871438</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.036992108816931</v>
       </c>
       <c r="J4">
-        <v>0.9981152228703128</v>
+        <v>0.9981152228703127</v>
       </c>
       <c r="K4">
         <v>1.010783954354648</v>
       </c>
       <c r="L4">
-        <v>0.9948859544474211</v>
+        <v>0.994885954447421</v>
       </c>
       <c r="M4">
-        <v>0.9655948894583619</v>
+        <v>0.9655948894583626</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9811938147937375</v>
+        <v>0.9811938147937374</v>
       </c>
       <c r="D5">
         <v>1.003055903250167</v>
       </c>
       <c r="E5">
-        <v>0.987260819687118</v>
+        <v>0.9872608196871177</v>
       </c>
       <c r="F5">
-        <v>0.9588879826722939</v>
+        <v>0.9588879826722936</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -559,10 +559,10 @@
         <v>1.012893907439006</v>
       </c>
       <c r="L5">
-        <v>0.9972869374221054</v>
+        <v>0.9972869374221052</v>
       </c>
       <c r="M5">
-        <v>0.9692714908538137</v>
+        <v>0.9692714908538133</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9817024533519729</v>
+        <v>0.9817024533519719</v>
       </c>
       <c r="D6">
-        <v>1.003448728361516</v>
+        <v>1.003448728361515</v>
       </c>
       <c r="E6">
-        <v>0.9877036463588168</v>
+        <v>0.9877036463588158</v>
       </c>
       <c r="F6">
-        <v>0.9595476339635669</v>
+        <v>0.9595476339635655</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.038189758197654</v>
+        <v>1.038189758197653</v>
       </c>
       <c r="J6">
-        <v>1.001039042129263</v>
+        <v>1.001039042129262</v>
       </c>
       <c r="K6">
-        <v>1.013244615583668</v>
+        <v>1.013244615583667</v>
       </c>
       <c r="L6">
-        <v>0.997686047603373</v>
+        <v>0.997686047603372</v>
       </c>
       <c r="M6">
-        <v>0.9698826528835146</v>
+        <v>0.9698826528835135</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -614,13 +614,13 @@
         <v>0.9781763839838064</v>
       </c>
       <c r="D7">
-        <v>1.000725714391077</v>
+        <v>1.000725714391078</v>
       </c>
       <c r="E7">
-        <v>0.9846338877011357</v>
+        <v>0.9846338877011361</v>
       </c>
       <c r="F7">
-        <v>0.9549735820594123</v>
+        <v>0.9549735820594124</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.037005967410858</v>
       </c>
       <c r="J7">
-        <v>0.9981490063742641</v>
+        <v>0.9981490063742642</v>
       </c>
       <c r="K7">
         <v>1.010812390040263</v>
       </c>
       <c r="L7">
-        <v>0.9949183104728457</v>
+        <v>0.9949183104728458</v>
       </c>
       <c r="M7">
-        <v>0.9656444359673054</v>
+        <v>0.9656444359673056</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9626631606695668</v>
+        <v>0.9626631606695669</v>
       </c>
       <c r="D8">
-        <v>0.9887526067434366</v>
+        <v>0.9887526067434367</v>
       </c>
       <c r="E8">
-        <v>0.9711314188413885</v>
+        <v>0.9711314188413888</v>
       </c>
       <c r="F8">
-        <v>0.9348126731630805</v>
+        <v>0.9348126731630808</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.031750818426121</v>
       </c>
       <c r="J8">
-        <v>0.9854127901065353</v>
+        <v>0.9854127901065356</v>
       </c>
       <c r="K8">
         <v>1.000087117794564</v>
       </c>
       <c r="L8">
-        <v>0.9827171729055607</v>
+        <v>0.9827171729055609</v>
       </c>
       <c r="M8">
-        <v>0.9469545705595352</v>
+        <v>0.9469545705595354</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9316311116654397</v>
+        <v>0.9316311116654393</v>
       </c>
       <c r="D9">
-        <v>0.9648553013414848</v>
+        <v>0.9648553013414847</v>
       </c>
       <c r="E9">
-        <v>0.9441492316796402</v>
+        <v>0.9441492316796399</v>
       </c>
       <c r="F9">
-        <v>0.8942193455640146</v>
+        <v>0.8942193455640142</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.021057184722024</v>
       </c>
       <c r="J9">
-        <v>0.9598527595003981</v>
+        <v>0.9598527595003979</v>
       </c>
       <c r="K9">
-        <v>0.9785455307592807</v>
+        <v>0.9785455307592804</v>
       </c>
       <c r="L9">
         <v>0.9582184718385207</v>
       </c>
       <c r="M9">
-        <v>0.9092984532138478</v>
+        <v>0.9092984532138475</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.907397701900307</v>
+        <v>0.9073977019003059</v>
       </c>
       <c r="D10">
-        <v>0.9462640807014276</v>
+        <v>0.946264080701427</v>
       </c>
       <c r="E10">
-        <v>0.923118321145717</v>
+        <v>0.9231183211457161</v>
       </c>
       <c r="F10">
-        <v>0.8621588305499388</v>
+        <v>0.8621588305499376</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.012587897571456</v>
       </c>
       <c r="J10">
-        <v>0.9398365673058284</v>
+        <v>0.9398365673058273</v>
       </c>
       <c r="K10">
-        <v>0.9616764151829899</v>
+        <v>0.9616764151829891</v>
       </c>
       <c r="L10">
-        <v>0.9390298109139052</v>
+        <v>0.9390298109139041</v>
       </c>
       <c r="M10">
-        <v>0.8795597137628783</v>
+        <v>0.879559713762877</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8956943323388814</v>
+        <v>0.8956943323388811</v>
       </c>
       <c r="D11">
-        <v>0.9373131531172861</v>
+        <v>0.9373131531172858</v>
       </c>
       <c r="E11">
-        <v>0.9129780194690182</v>
+        <v>0.9129780194690177</v>
       </c>
       <c r="F11">
-        <v>0.8465235088581691</v>
+        <v>0.8465235088581685</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.008472014280511</v>
       </c>
       <c r="J11">
-        <v>0.9301568154135416</v>
+        <v>0.9301568154135413</v>
       </c>
       <c r="K11">
-        <v>0.9535226828955768</v>
+        <v>0.9535226828955764</v>
       </c>
       <c r="L11">
-        <v>0.929751460199819</v>
+        <v>0.9297514601998186</v>
       </c>
       <c r="M11">
-        <v>0.8650645461225331</v>
+        <v>0.8650645461225328</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8911172841029515</v>
+        <v>0.891117284102951</v>
       </c>
       <c r="D12">
-        <v>0.9338179598209763</v>
+        <v>0.9338179598209759</v>
       </c>
       <c r="E12">
-        <v>0.9090155814828322</v>
+        <v>0.9090155814828318</v>
       </c>
       <c r="F12">
-        <v>0.8403770291737926</v>
+        <v>0.8403770291737916</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.006858792069812</v>
       </c>
       <c r="J12">
-        <v>0.9263692143795209</v>
+        <v>0.9263692143795201</v>
       </c>
       <c r="K12">
-        <v>0.9503333119458934</v>
+        <v>0.9503333119458929</v>
       </c>
       <c r="L12">
-        <v>0.9261213977907007</v>
+        <v>0.9261213977907001</v>
       </c>
       <c r="M12">
-        <v>0.8593684718465312</v>
+        <v>0.8593684718465303</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8921104809512194</v>
+        <v>0.8921104809512223</v>
       </c>
       <c r="D13">
-        <v>0.9345761322968363</v>
+        <v>0.9345761322968389</v>
       </c>
       <c r="E13">
-        <v>0.9098752456042147</v>
+        <v>0.9098752456042174</v>
       </c>
       <c r="F13">
-        <v>0.8417123933540499</v>
+        <v>0.8417123933540531</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.007209006647755</v>
+        <v>1.007209006647757</v>
       </c>
       <c r="J13">
-        <v>0.9271911939522602</v>
+        <v>0.9271911939522631</v>
       </c>
       <c r="K13">
-        <v>0.9510254047812802</v>
+        <v>0.9510254047812826</v>
       </c>
       <c r="L13">
-        <v>0.9269091610735593</v>
+        <v>0.9269091610735616</v>
       </c>
       <c r="M13">
-        <v>0.860605862776388</v>
+        <v>0.860605862776391</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8953210341157214</v>
+        <v>0.8953210341157238</v>
       </c>
       <c r="D14">
-        <v>0.937027972615743</v>
+        <v>0.9370279726157449</v>
       </c>
       <c r="E14">
-        <v>0.9126547758349005</v>
+        <v>0.9126547758349024</v>
       </c>
       <c r="F14">
-        <v>0.8460229098850993</v>
+        <v>0.8460229098851015</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.008340510983428</v>
+        <v>1.008340510983429</v>
       </c>
       <c r="J14">
-        <v>0.9298479431062286</v>
+        <v>0.9298479431062309</v>
       </c>
       <c r="K14">
-        <v>0.9532625694901026</v>
+        <v>0.9532625694901045</v>
       </c>
       <c r="L14">
-        <v>0.9294554232320059</v>
+        <v>0.9294554232320075</v>
       </c>
       <c r="M14">
-        <v>0.8646005790482725</v>
+        <v>0.8646005790482746</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8972669140676258</v>
+        <v>0.8972669140676232</v>
       </c>
       <c r="D15">
-        <v>0.9385147491678759</v>
+        <v>0.9385147491678737</v>
       </c>
       <c r="E15">
-        <v>0.9143398762245681</v>
+        <v>0.9143398762245655</v>
       </c>
       <c r="F15">
-        <v>0.8486310345940273</v>
+        <v>0.8486310345940241</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.009025853947287</v>
+        <v>1.009025853947286</v>
       </c>
       <c r="J15">
-        <v>0.9314579132077556</v>
+        <v>0.9314579132077532</v>
       </c>
       <c r="K15">
-        <v>0.9546184359417142</v>
+        <v>0.9546184359417119</v>
       </c>
       <c r="L15">
-        <v>0.9309985112898104</v>
+        <v>0.930998511289808</v>
       </c>
       <c r="M15">
-        <v>0.8670179460468076</v>
+        <v>0.8670179460468045</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9081452452064335</v>
+        <v>0.9081452452064337</v>
       </c>
       <c r="D16">
-        <v>0.9468364630148371</v>
+        <v>0.9468364630148374</v>
       </c>
       <c r="E16">
-        <v>0.9237664178091097</v>
+        <v>0.9237664178091098</v>
       </c>
       <c r="F16">
-        <v>0.8631538301876132</v>
+        <v>0.8631538301876135</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -977,10 +977,10 @@
         <v>0.962197127173004</v>
       </c>
       <c r="L16">
-        <v>0.9396222526095704</v>
+        <v>0.9396222526095708</v>
       </c>
       <c r="M16">
-        <v>0.8804823864989494</v>
+        <v>0.8804823864989497</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9146165996200242</v>
+        <v>0.9146165996200245</v>
       </c>
       <c r="D17">
-        <v>0.9517945839507459</v>
+        <v>0.9517945839507462</v>
       </c>
       <c r="E17">
         <v>0.9293787354729477</v>
       </c>
       <c r="F17">
-        <v>0.8717502251078336</v>
+        <v>0.8717502251078343</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.015119142697466</v>
       </c>
       <c r="J17">
-        <v>0.9458033114859983</v>
+        <v>0.9458033114859984</v>
       </c>
       <c r="K17">
-        <v>0.9667041358556328</v>
+        <v>0.9667041358556331</v>
       </c>
       <c r="L17">
-        <v>0.9447497140589678</v>
+        <v>0.944749714058968</v>
       </c>
       <c r="M17">
-        <v>0.888454828057236</v>
+        <v>0.8884548280572365</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9182784836108141</v>
+        <v>0.9182784836108171</v>
       </c>
       <c r="D18">
-        <v>0.9546025835734198</v>
+        <v>0.954602583573422</v>
       </c>
       <c r="E18">
-        <v>0.9325559445006</v>
+        <v>0.9325559445006029</v>
       </c>
       <c r="F18">
-        <v>0.87660157059847</v>
+        <v>0.8766015705984733</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.016400650230964</v>
+        <v>1.016400650230966</v>
       </c>
       <c r="J18">
-        <v>0.9488287648231966</v>
+        <v>0.9488287648231993</v>
       </c>
       <c r="K18">
-        <v>0.9692538167337013</v>
+        <v>0.9692538167337035</v>
       </c>
       <c r="L18">
-        <v>0.9476501012508087</v>
+        <v>0.9476501012508116</v>
       </c>
       <c r="M18">
-        <v>0.8929546753365882</v>
+        <v>0.8929546753365916</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9195091344571956</v>
+        <v>0.9195091344571954</v>
       </c>
       <c r="D19">
-        <v>0.9555466453416136</v>
+        <v>0.9555466453416134</v>
       </c>
       <c r="E19">
-        <v>0.9336239316254485</v>
+        <v>0.9336239316254484</v>
       </c>
       <c r="F19">
-        <v>0.8782299522448411</v>
+        <v>0.8782299522448412</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,13 +1085,13 @@
         <v>1.016830922557188</v>
       </c>
       <c r="J19">
-        <v>0.9498453300705116</v>
+        <v>0.9498453300705115</v>
       </c>
       <c r="K19">
-        <v>0.970110565379452</v>
+        <v>0.9701105653794517</v>
       </c>
       <c r="L19">
-        <v>0.9486246520406572</v>
+        <v>0.9486246520406569</v>
       </c>
       <c r="M19">
         <v>0.8944651589477618</v>
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9139342339186914</v>
+        <v>0.9139342339186912</v>
       </c>
       <c r="D20">
-        <v>0.9512715216781357</v>
+        <v>0.9512715216781354</v>
       </c>
       <c r="E20">
-        <v>0.9287867965955299</v>
+        <v>0.9287867965955293</v>
       </c>
       <c r="F20">
-        <v>0.8708451974178761</v>
+        <v>0.8708451974178762</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,13 +1123,13 @@
         <v>1.014880149997224</v>
       </c>
       <c r="J20">
-        <v>0.9452394438435265</v>
+        <v>0.9452394438435262</v>
       </c>
       <c r="K20">
-        <v>0.966228964483682</v>
+        <v>0.9662289644836818</v>
       </c>
       <c r="L20">
-        <v>0.9442091610324973</v>
+        <v>0.944209161032497</v>
       </c>
       <c r="M20">
         <v>0.8876154188219648</v>
@@ -1140,19 +1140,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C21">
-        <v>0.8943824422579156</v>
+        <v>0.8943824422579176</v>
       </c>
       <c r="D21">
-        <v>0.9363110282145427</v>
+        <v>0.9363110282145444</v>
       </c>
       <c r="E21">
-        <v>0.9118420934833724</v>
+        <v>0.911842093483374</v>
       </c>
       <c r="F21">
-        <v>0.8447637008236291</v>
+        <v>0.8447637008236313</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.008009814029496</v>
       </c>
       <c r="J21">
-        <v>0.9290713073058597</v>
+        <v>0.9290713073058616</v>
       </c>
       <c r="K21">
-        <v>0.952608553923681</v>
+        <v>0.9526085539236827</v>
       </c>
       <c r="L21">
-        <v>0.9287110697000825</v>
+        <v>0.9287110697000841</v>
       </c>
       <c r="M21">
-        <v>0.8634335531885015</v>
+        <v>0.8634335531885033</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.880717593945458</v>
+        <v>0.8807175939454568</v>
       </c>
       <c r="D22">
-        <v>0.9258883659122696</v>
+        <v>0.9258883659122688</v>
       </c>
       <c r="E22">
-        <v>0.9000198350212724</v>
+        <v>0.9000198350212716</v>
       </c>
       <c r="F22">
-        <v>0.8263376754712235</v>
+        <v>0.8263376754712221</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.003187109790833</v>
+        <v>1.003187109790832</v>
       </c>
       <c r="J22">
-        <v>0.9177595056695752</v>
+        <v>0.9177595056695742</v>
       </c>
       <c r="K22">
-        <v>0.9430862826721248</v>
+        <v>0.943086282672124</v>
       </c>
       <c r="L22">
-        <v>0.9178711619770821</v>
+        <v>0.9178711619770813</v>
       </c>
       <c r="M22">
-        <v>0.8463636624432069</v>
+        <v>0.8463636624432055</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8881138298323769</v>
+        <v>0.888113829832376</v>
       </c>
       <c r="D23">
-        <v>0.9315261411962814</v>
+        <v>0.9315261411962809</v>
       </c>
       <c r="E23">
-        <v>0.9064165031559047</v>
+        <v>0.9064165031559037</v>
       </c>
       <c r="F23">
-        <v>0.8363332608366524</v>
+        <v>0.8363332608366504</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.005799242324163</v>
       </c>
       <c r="J23">
-        <v>0.9238832334969861</v>
+        <v>0.9238832334969853</v>
       </c>
       <c r="K23">
-        <v>0.9482403705775079</v>
+        <v>0.9482403705775073</v>
       </c>
       <c r="L23">
-        <v>0.9237390010982309</v>
+        <v>0.9237390010982299</v>
       </c>
       <c r="M23">
-        <v>0.8556218169788331</v>
+        <v>0.8556218169788312</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,13 +1257,13 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9142429106618803</v>
+        <v>0.9142429106618798</v>
       </c>
       <c r="D24">
-        <v>0.9515081280947616</v>
+        <v>0.9515081280947608</v>
       </c>
       <c r="E24">
-        <v>0.9290545632355585</v>
+        <v>0.9290545632355581</v>
       </c>
       <c r="F24">
         <v>0.8712546382745128</v>
@@ -1275,13 +1275,13 @@
         <v>1.014988268704023</v>
       </c>
       <c r="J24">
-        <v>0.9454945201734463</v>
+        <v>0.9454945201734462</v>
       </c>
       <c r="K24">
-        <v>0.9664439163461324</v>
+        <v>0.9664439163461319</v>
       </c>
       <c r="L24">
-        <v>0.9444536902977833</v>
+        <v>0.944453690297783</v>
       </c>
       <c r="M24">
         <v>0.8879951715297911</v>
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9401828664177465</v>
+        <v>0.9401828664177455</v>
       </c>
       <c r="D25">
-        <v>0.9714320536376383</v>
+        <v>0.9714320536376375</v>
       </c>
       <c r="E25">
-        <v>0.9515801131224424</v>
+        <v>0.9515801131224416</v>
       </c>
       <c r="F25">
-        <v>0.9054497260859371</v>
+        <v>0.9054497260859358</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.024024040950465</v>
       </c>
       <c r="J25">
-        <v>0.9669057788575415</v>
+        <v>0.9669057788575406</v>
       </c>
       <c r="K25">
-        <v>0.9844906534933383</v>
+        <v>0.9844906534933375</v>
       </c>
       <c r="L25">
-        <v>0.9649796653326759</v>
+        <v>0.964979665332675</v>
       </c>
       <c r="M25">
-        <v>0.9197175616023169</v>
+        <v>0.9197175616023154</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/res_bus/vm_pu.xlsx
+++ b/Code/Results/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9584483529348066</v>
+        <v>0.955599379418889</v>
       </c>
       <c r="D2">
-        <v>0.9855021302359501</v>
+        <v>0.9832438268346476</v>
       </c>
       <c r="E2">
-        <v>0.9674641479476135</v>
+        <v>0.9650076273980882</v>
       </c>
       <c r="F2">
-        <v>0.9293225045445632</v>
+        <v>0.9262855511728519</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.030311226548107</v>
+        <v>1.02918095560017</v>
       </c>
       <c r="J2">
-        <v>0.9819471009264992</v>
+        <v>0.9791943597039255</v>
       </c>
       <c r="K2">
-        <v>0.9971672080651687</v>
+        <v>0.9949416453283585</v>
       </c>
       <c r="L2">
-        <v>0.9793961721171743</v>
+        <v>0.9769769902468468</v>
       </c>
       <c r="M2">
-        <v>0.9418629691489674</v>
+        <v>0.938877240764573</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9706497244047185</v>
+        <v>0.967845700555067</v>
       </c>
       <c r="D3">
-        <v>0.9949150197488759</v>
+        <v>0.9926877365595113</v>
       </c>
       <c r="E3">
-        <v>0.9780820343366284</v>
+        <v>0.9756620444721977</v>
       </c>
       <c r="F3">
-        <v>0.9452002625583111</v>
+        <v>0.942234894883886</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.034465343064477</v>
+        <v>1.033348913338131</v>
       </c>
       <c r="J3">
-        <v>0.9919737936820984</v>
+        <v>0.9892530307150852</v>
       </c>
       <c r="K3">
-        <v>1.005613379990294</v>
+        <v>1.003415042136158</v>
       </c>
       <c r="L3">
-        <v>0.9890032599271307</v>
+        <v>0.986616105819023</v>
       </c>
       <c r="M3">
-        <v>0.9565859002114402</v>
+        <v>0.9536644396465226</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9781351793452007</v>
+        <v>0.9753557297160701</v>
       </c>
       <c r="D4">
-        <v>1.000693896848054</v>
+        <v>0.9984834584571164</v>
       </c>
       <c r="E4">
-        <v>0.9845980165487556</v>
+        <v>0.982197892139934</v>
       </c>
       <c r="F4">
-        <v>0.9549201151871438</v>
+        <v>0.9519941088006841</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.036992108816931</v>
+        <v>1.035883068570594</v>
       </c>
       <c r="J4">
-        <v>0.9981152228703127</v>
+        <v>0.9954115604907315</v>
       </c>
       <c r="K4">
-        <v>1.010783954354648</v>
+        <v>1.008600221325814</v>
       </c>
       <c r="L4">
-        <v>0.994885954447421</v>
+        <v>0.9925160299815249</v>
       </c>
       <c r="M4">
-        <v>0.9655948894583626</v>
+        <v>0.9627086659375499</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9811938147937374</v>
+        <v>0.978423791396291</v>
       </c>
       <c r="D5">
-        <v>1.003055903250167</v>
+        <v>1.000851898538272</v>
       </c>
       <c r="E5">
-        <v>0.9872608196871177</v>
+        <v>0.9848682895719421</v>
       </c>
       <c r="F5">
-        <v>0.9588879826722936</v>
+        <v>0.9559771384066827</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.038019261927398</v>
+        <v>1.036913013082408</v>
       </c>
       <c r="J5">
-        <v>1.000622272458208</v>
+        <v>0.9979250805532042</v>
       </c>
       <c r="K5">
-        <v>1.012893907439006</v>
+        <v>1.010715710375081</v>
       </c>
       <c r="L5">
-        <v>0.9972869374221052</v>
+        <v>0.9949235554693319</v>
       </c>
       <c r="M5">
-        <v>0.9692714908538133</v>
+        <v>0.9663988159916684</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9817024533519719</v>
+        <v>0.9789339639109265</v>
       </c>
       <c r="D6">
-        <v>1.003448728361515</v>
+        <v>1.001245768965696</v>
       </c>
       <c r="E6">
-        <v>0.9877036463588158</v>
+        <v>0.9853123505473196</v>
       </c>
       <c r="F6">
-        <v>0.9595476339635655</v>
+        <v>0.9566392611115788</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.038189758197653</v>
+        <v>1.037083961032666</v>
       </c>
       <c r="J6">
-        <v>1.001039042129262</v>
+        <v>0.9983428979691026</v>
       </c>
       <c r="K6">
-        <v>1.013244615583667</v>
+        <v>1.011067315492118</v>
       </c>
       <c r="L6">
-        <v>0.997686047603372</v>
+        <v>0.9953237264043732</v>
       </c>
       <c r="M6">
-        <v>0.9698826528835135</v>
+        <v>0.967012184956354</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9781763839838064</v>
+        <v>0.9753970636637253</v>
       </c>
       <c r="D7">
-        <v>1.000725714391078</v>
+        <v>0.9985153643707531</v>
       </c>
       <c r="E7">
-        <v>0.9846338877011361</v>
+        <v>0.9822338675762177</v>
       </c>
       <c r="F7">
-        <v>0.9549735820594124</v>
+        <v>0.9520477833947018</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.037005967410858</v>
+        <v>1.03589696563335</v>
       </c>
       <c r="J7">
-        <v>0.9981490063742642</v>
+        <v>0.9954454331163769</v>
       </c>
       <c r="K7">
-        <v>1.010812390040263</v>
+        <v>1.00862873322286</v>
       </c>
       <c r="L7">
-        <v>0.9949183104728458</v>
+        <v>0.9925484760273838</v>
       </c>
       <c r="M7">
-        <v>0.9656444359673056</v>
+        <v>0.9627583981653737</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9626631606695669</v>
+        <v>0.9598304328279396</v>
       </c>
       <c r="D8">
-        <v>0.9887526067434367</v>
+        <v>0.9865055409505576</v>
       </c>
       <c r="E8">
-        <v>0.9711314188413888</v>
+        <v>0.9686881255935931</v>
       </c>
       <c r="F8">
-        <v>0.9348126731630808</v>
+        <v>0.9318015475656817</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.031750818426121</v>
+        <v>1.030625590894455</v>
       </c>
       <c r="J8">
-        <v>0.9854127901065356</v>
+        <v>0.9826716970872307</v>
       </c>
       <c r="K8">
-        <v>1.000087117794564</v>
+        <v>0.9978714600691672</v>
       </c>
       <c r="L8">
-        <v>0.9827171729055609</v>
+        <v>0.9803096320442164</v>
       </c>
       <c r="M8">
-        <v>0.9469545705595354</v>
+        <v>0.9439920523838741</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9316311116654393</v>
+        <v>0.92865844957891</v>
       </c>
       <c r="D9">
-        <v>0.9648553013414847</v>
+        <v>0.9625107836409733</v>
       </c>
       <c r="E9">
-        <v>0.9441492316796399</v>
+        <v>0.9415914036575688</v>
       </c>
       <c r="F9">
-        <v>0.8942193455640142</v>
+        <v>0.8909862896187881</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.021057184722024</v>
+        <v>1.019887499115951</v>
       </c>
       <c r="J9">
-        <v>0.9598527595003979</v>
+        <v>0.9570089234252352</v>
       </c>
       <c r="K9">
-        <v>0.9785455307592804</v>
+        <v>0.976242864566633</v>
       </c>
       <c r="L9">
-        <v>0.9582184718385207</v>
+        <v>0.9557089755825128</v>
       </c>
       <c r="M9">
-        <v>0.9092984532138475</v>
+        <v>0.90613597690023</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9073977019003059</v>
+        <v>0.9042756467764068</v>
       </c>
       <c r="D10">
-        <v>0.946264080701427</v>
+        <v>0.9438145100945265</v>
       </c>
       <c r="E10">
-        <v>0.9231183211457161</v>
+        <v>0.9204373244310625</v>
       </c>
       <c r="F10">
-        <v>0.8621588305499376</v>
+        <v>0.8586880366700099</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.012587897571456</v>
+        <v>1.011369198548238</v>
       </c>
       <c r="J10">
-        <v>0.9398365673058273</v>
+        <v>0.9368790332001102</v>
       </c>
       <c r="K10">
-        <v>0.9616764151829891</v>
+        <v>0.959278139309595</v>
       </c>
       <c r="L10">
-        <v>0.9390298109139041</v>
+        <v>0.9364087947013197</v>
       </c>
       <c r="M10">
-        <v>0.879559713762877</v>
+        <v>0.8761823903837002</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8956943323388811</v>
+        <v>0.8924833264419183</v>
       </c>
       <c r="D11">
-        <v>0.9373131531172858</v>
+        <v>0.934800745682258</v>
       </c>
       <c r="E11">
-        <v>0.9129780194690177</v>
+        <v>0.9102234562621481</v>
       </c>
       <c r="F11">
-        <v>0.8465235088581685</v>
+        <v>0.8429100642954503</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.008472014280511</v>
+        <v>1.007223710105904</v>
       </c>
       <c r="J11">
-        <v>0.9301568154135413</v>
+        <v>0.9271303615635547</v>
       </c>
       <c r="K11">
-        <v>0.9535226828955764</v>
+        <v>0.9510666831430444</v>
       </c>
       <c r="L11">
-        <v>0.9297514601998186</v>
+        <v>0.927063281929574</v>
       </c>
       <c r="M11">
-        <v>0.8650645461225328</v>
+        <v>0.8615582213853831</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C12">
-        <v>0.891117284102951</v>
+        <v>0.8878678678220473</v>
       </c>
       <c r="D12">
-        <v>0.9338179598209759</v>
+        <v>0.9312783687902362</v>
       </c>
       <c r="E12">
-        <v>0.9090155814828318</v>
+        <v>0.9062292143723502</v>
       </c>
       <c r="F12">
-        <v>0.8403770291737916</v>
+        <v>0.8367016837650977</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.006858792069812</v>
+        <v>1.005597633799747</v>
       </c>
       <c r="J12">
-        <v>0.9263692143795201</v>
+        <v>0.9233127843969843</v>
       </c>
       <c r="K12">
-        <v>0.9503333119458929</v>
+        <v>0.9478522482301717</v>
       </c>
       <c r="L12">
-        <v>0.9261213977907001</v>
+        <v>0.923404088941742</v>
       </c>
       <c r="M12">
-        <v>0.8593684718465303</v>
+        <v>0.8558061680067189</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8921104809512223</v>
+        <v>0.8888695869716754</v>
       </c>
       <c r="D13">
-        <v>0.9345761322968389</v>
+        <v>0.9320425749628971</v>
       </c>
       <c r="E13">
-        <v>0.9098752456042174</v>
+        <v>0.9070959366520811</v>
       </c>
       <c r="F13">
-        <v>0.8417123933540531</v>
+        <v>0.8380507985268629</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.007209006647757</v>
+        <v>1.005950703619233</v>
       </c>
       <c r="J13">
-        <v>0.9271911939522631</v>
+        <v>0.9241414250756423</v>
       </c>
       <c r="K13">
-        <v>0.9510254047812826</v>
+        <v>0.9485499085912213</v>
       </c>
       <c r="L13">
-        <v>0.9269091610735616</v>
+        <v>0.9241983215554964</v>
       </c>
       <c r="M13">
-        <v>0.860605862776391</v>
+        <v>0.8570559938545619</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8953210341157238</v>
+        <v>0.8921069767258133</v>
       </c>
       <c r="D14">
-        <v>0.9370279726157449</v>
+        <v>0.9345134066054407</v>
       </c>
       <c r="E14">
-        <v>0.9126547758349024</v>
+        <v>0.9098976867109453</v>
       </c>
       <c r="F14">
-        <v>0.8460229098851015</v>
+        <v>0.8424045545135833</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.008340510983429</v>
+        <v>1.007091187029215</v>
       </c>
       <c r="J14">
-        <v>0.9298479431062309</v>
+        <v>0.9268191122111469</v>
       </c>
       <c r="K14">
-        <v>0.9532625694901045</v>
+        <v>0.9508045813423135</v>
       </c>
       <c r="L14">
-        <v>0.9294554232320075</v>
+        <v>0.9267649332958594</v>
       </c>
       <c r="M14">
-        <v>0.8646005790482746</v>
+        <v>0.8610898132269678</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8972669140676232</v>
+        <v>0.8940686099070775</v>
       </c>
       <c r="D15">
-        <v>0.9385147491678737</v>
+        <v>0.9360113247765681</v>
       </c>
       <c r="E15">
-        <v>0.9143398762245655</v>
+        <v>0.9115958256373737</v>
       </c>
       <c r="F15">
-        <v>0.8486310345940241</v>
+        <v>0.8450380185481078</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.009025853947286</v>
+        <v>1.007781791831402</v>
       </c>
       <c r="J15">
-        <v>0.9314579132077532</v>
+        <v>0.9284413452407323</v>
       </c>
       <c r="K15">
-        <v>0.9546184359417119</v>
+        <v>0.9521707074000871</v>
       </c>
       <c r="L15">
-        <v>0.930998511289808</v>
+        <v>0.9283199502028433</v>
       </c>
       <c r="M15">
-        <v>0.8670179460468045</v>
+        <v>0.863530095854731</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9081452452064337</v>
+        <v>0.9050284574739362</v>
       </c>
       <c r="D16">
-        <v>0.9468364630148374</v>
+        <v>0.9443906077448526</v>
       </c>
       <c r="E16">
-        <v>0.9237664178091098</v>
+        <v>0.9210897731295474</v>
       </c>
       <c r="F16">
-        <v>0.8631538301876135</v>
+        <v>0.8596914547137129</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.012850303660755</v>
+        <v>1.011633349602845</v>
       </c>
       <c r="J16">
-        <v>0.9404545920510712</v>
+        <v>0.9375011146443195</v>
       </c>
       <c r="K16">
-        <v>0.962197127173004</v>
+        <v>0.9598022537388413</v>
       </c>
       <c r="L16">
-        <v>0.9396222526095708</v>
+        <v>0.9370051986150476</v>
       </c>
       <c r="M16">
-        <v>0.8804823864989497</v>
+        <v>0.8771126751988919</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9146165996200245</v>
+        <v>0.911543518485236</v>
       </c>
       <c r="D17">
-        <v>0.9517945839507462</v>
+        <v>0.9493795289229001</v>
       </c>
       <c r="E17">
-        <v>0.9293787354729477</v>
+        <v>0.9267381798134959</v>
       </c>
       <c r="F17">
-        <v>0.8717502251078343</v>
+        <v>0.8683575879204322</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.015119142697466</v>
+        <v>1.013916626468707</v>
       </c>
       <c r="J17">
-        <v>0.9458033114859984</v>
+        <v>0.9428833745038848</v>
       </c>
       <c r="K17">
-        <v>0.9667041358556331</v>
+        <v>0.9643374162491164</v>
       </c>
       <c r="L17">
-        <v>0.944749714058968</v>
+        <v>0.9421654623002413</v>
       </c>
       <c r="M17">
-        <v>0.8884548280572365</v>
+        <v>0.885148167780399</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9182784836108171</v>
+        <v>0.9152287066767596</v>
       </c>
       <c r="D18">
-        <v>0.954602583573422</v>
+        <v>0.9522039288966423</v>
       </c>
       <c r="E18">
-        <v>0.9325559445006029</v>
+        <v>0.9299346133365871</v>
       </c>
       <c r="F18">
-        <v>0.8766015705984733</v>
+        <v>0.8732460398542976</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.016400650230966</v>
+        <v>1.015205799301823</v>
       </c>
       <c r="J18">
-        <v>0.9488287648231993</v>
+        <v>0.9459266168456826</v>
       </c>
       <c r="K18">
-        <v>0.9692538167337035</v>
+        <v>0.9669020468449779</v>
       </c>
       <c r="L18">
-        <v>0.9476501012508116</v>
+        <v>0.9450832802481839</v>
       </c>
       <c r="M18">
-        <v>0.8929546753365916</v>
+        <v>0.8896815557904956</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9195091344571954</v>
+        <v>0.9164669697106148</v>
       </c>
       <c r="D19">
-        <v>0.9555466453416134</v>
+        <v>0.9531533440880586</v>
       </c>
       <c r="E19">
-        <v>0.9336239316254484</v>
+        <v>0.9310088770085699</v>
       </c>
       <c r="F19">
-        <v>0.8782299522448412</v>
+        <v>0.8748865313888553</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.016830922557188</v>
+        <v>1.015638569991688</v>
       </c>
       <c r="J19">
-        <v>0.9498453300705115</v>
+        <v>0.9469489773296692</v>
       </c>
       <c r="K19">
-        <v>0.9701105653794517</v>
+        <v>0.9677636685879264</v>
       </c>
       <c r="L19">
-        <v>0.9486246520406569</v>
+        <v>0.946063514914413</v>
       </c>
       <c r="M19">
-        <v>0.8944651589477618</v>
+        <v>0.8912029841141045</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9139342339186912</v>
+        <v>0.9108566992585571</v>
       </c>
       <c r="D20">
-        <v>0.9512715216781354</v>
+        <v>0.9488533306376505</v>
       </c>
       <c r="E20">
-        <v>0.9287867965955293</v>
+        <v>0.926142565550153</v>
       </c>
       <c r="F20">
-        <v>0.8708451974178762</v>
+        <v>0.8674454631423785</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.014880149997224</v>
+        <v>1.01367616616296</v>
       </c>
       <c r="J20">
-        <v>0.9452394438435262</v>
+        <v>0.9423160995102614</v>
       </c>
       <c r="K20">
-        <v>0.9662289644836818</v>
+        <v>0.9638593828165651</v>
       </c>
       <c r="L20">
-        <v>0.944209161032497</v>
+        <v>0.9416215732719052</v>
       </c>
       <c r="M20">
-        <v>0.8876154188219648</v>
+        <v>0.8843023427567991</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8943824422579176</v>
+        <v>0.8911606498343925</v>
       </c>
       <c r="D21">
-        <v>0.9363110282145444</v>
+        <v>0.9337909897713351</v>
       </c>
       <c r="E21">
-        <v>0.911842093483374</v>
+        <v>0.9090786009952034</v>
       </c>
       <c r="F21">
-        <v>0.8447637008236313</v>
+        <v>0.8411328920842968</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.008009814029496</v>
+        <v>1.0067579039848</v>
       </c>
       <c r="J21">
-        <v>0.9290713073058616</v>
+        <v>0.9260364475199044</v>
       </c>
       <c r="K21">
-        <v>0.9526085539236827</v>
+        <v>0.9501455233065507</v>
       </c>
       <c r="L21">
-        <v>0.9287110697000841</v>
+        <v>0.9260147180110736</v>
       </c>
       <c r="M21">
-        <v>0.8634335531885033</v>
+        <v>0.8599115252123687</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8807175939454568</v>
+        <v>0.8773721529718246</v>
       </c>
       <c r="D22">
-        <v>0.9258883659122688</v>
+        <v>0.923280706631968</v>
       </c>
       <c r="E22">
-        <v>0.9000198350212716</v>
+        <v>0.8971538826821753</v>
       </c>
       <c r="F22">
-        <v>0.8263376754712221</v>
+        <v>0.8225067350888254</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.003187109790832</v>
+        <v>1.001893666543887</v>
       </c>
       <c r="J22">
-        <v>0.9177595056695742</v>
+        <v>0.914627659643607</v>
       </c>
       <c r="K22">
-        <v>0.943086282672124</v>
+        <v>0.9405422575697571</v>
       </c>
       <c r="L22">
-        <v>0.9178711619770813</v>
+        <v>0.9150807495722152</v>
       </c>
       <c r="M22">
-        <v>0.8463636624432055</v>
+        <v>0.8426606685940435</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.888113829832376</v>
+        <v>0.8848379828879445</v>
       </c>
       <c r="D23">
-        <v>0.9315261411962809</v>
+        <v>0.9289678294619085</v>
       </c>
       <c r="E23">
-        <v>0.9064165031559037</v>
+        <v>0.9036082405404107</v>
       </c>
       <c r="F23">
-        <v>0.8363332608366504</v>
+        <v>0.8326152099044435</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.005799242324163</v>
+        <v>1.004529217862805</v>
       </c>
       <c r="J23">
-        <v>0.9238832334969853</v>
+        <v>0.9208061100411519</v>
       </c>
       <c r="K23">
-        <v>0.9482403705775073</v>
+        <v>0.9457420177617241</v>
       </c>
       <c r="L23">
-        <v>0.9237390010982299</v>
+        <v>0.9210016080654462</v>
       </c>
       <c r="M23">
-        <v>0.8556218169788312</v>
+        <v>0.8520208949207626</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9142429106618798</v>
+        <v>0.9111673950089161</v>
       </c>
       <c r="D24">
-        <v>0.9515081280947608</v>
+        <v>0.949091358837558</v>
       </c>
       <c r="E24">
-        <v>0.9290545632355581</v>
+        <v>0.9264119984853344</v>
       </c>
       <c r="F24">
-        <v>0.8712546382745128</v>
+        <v>0.8678581217079963</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.014988268704023</v>
+        <v>1.013784950314328</v>
       </c>
       <c r="J24">
-        <v>0.9454945201734462</v>
+        <v>0.9425727208655884</v>
       </c>
       <c r="K24">
-        <v>0.9664439163461319</v>
+        <v>0.9640756323922898</v>
       </c>
       <c r="L24">
-        <v>0.944453690297783</v>
+        <v>0.9418676151040047</v>
       </c>
       <c r="M24">
-        <v>0.8879951715297911</v>
+        <v>0.8846850043077814</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9401828664177455</v>
+        <v>0.9372537822363091</v>
       </c>
       <c r="D25">
-        <v>0.9714320536376375</v>
+        <v>0.9691180173421583</v>
       </c>
       <c r="E25">
-        <v>0.9515801131224416</v>
+        <v>0.9490580738162467</v>
       </c>
       <c r="F25">
-        <v>0.9054497260859358</v>
+        <v>0.9022857416426363</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.024024040950465</v>
+        <v>1.022868406237506</v>
       </c>
       <c r="J25">
-        <v>0.9669057788575406</v>
+        <v>0.9640944435563503</v>
       </c>
       <c r="K25">
-        <v>0.9844906534933375</v>
+        <v>0.9822154326956121</v>
       </c>
       <c r="L25">
-        <v>0.964979665332675</v>
+        <v>0.9625022665115224</v>
       </c>
       <c r="M25">
-        <v>0.9197175616023154</v>
+        <v>0.9166174181029062</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/res_bus/vm_pu.xlsx
+++ b/Code/Results/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.955599379418889</v>
+        <v>0.9626310369308592</v>
       </c>
       <c r="D2">
-        <v>0.9832438268346476</v>
+        <v>0.9886668653317213</v>
       </c>
       <c r="E2">
-        <v>0.9650076273980882</v>
+        <v>0.9717025505326101</v>
       </c>
       <c r="F2">
-        <v>0.9262855511728519</v>
+        <v>0.9373878623774127</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.02918095560017</v>
+        <v>1.030769576117298</v>
       </c>
       <c r="J2">
-        <v>0.9791943597039255</v>
+        <v>0.9859899374366492</v>
       </c>
       <c r="K2">
-        <v>0.9949416453283585</v>
+        <v>1.00028637980606</v>
       </c>
       <c r="L2">
-        <v>0.9769769902468468</v>
+        <v>0.9835707165988693</v>
       </c>
       <c r="M2">
-        <v>0.938877240764573</v>
+        <v>0.9497943589845799</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.967845700555067</v>
+        <v>0.9741197046967054</v>
       </c>
       <c r="D3">
-        <v>0.9926877365595113</v>
+        <v>0.9975400573709011</v>
       </c>
       <c r="E3">
-        <v>0.9756620444721977</v>
+        <v>0.9816447563085319</v>
       </c>
       <c r="F3">
-        <v>0.942234894883886</v>
+        <v>0.9521367267359822</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.033348913338131</v>
+        <v>1.034760932073159</v>
       </c>
       <c r="J3">
-        <v>0.9892530307150852</v>
+        <v>0.9953416490766156</v>
       </c>
       <c r="K3">
-        <v>1.003415042136158</v>
+        <v>1.008204510688724</v>
       </c>
       <c r="L3">
-        <v>0.986616105819023</v>
+        <v>0.9925180111125878</v>
       </c>
       <c r="M3">
-        <v>0.9536644396465226</v>
+        <v>0.9634210127105038</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9753557297160701</v>
+        <v>0.9811833483245908</v>
       </c>
       <c r="D4">
-        <v>0.9984834584571164</v>
+        <v>1.002998958544201</v>
       </c>
       <c r="E4">
-        <v>0.982197892139934</v>
+        <v>0.9877593571912343</v>
       </c>
       <c r="F4">
-        <v>0.9519941088006841</v>
+        <v>0.9611880062170053</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.035883068570594</v>
+        <v>1.037195021052741</v>
       </c>
       <c r="J4">
-        <v>0.9954115604907315</v>
+        <v>1.001080948628347</v>
       </c>
       <c r="K4">
-        <v>1.008600221325814</v>
+        <v>1.01306132303485</v>
       </c>
       <c r="L4">
-        <v>0.9925160299815249</v>
+        <v>0.9980077960741711</v>
       </c>
       <c r="M4">
-        <v>0.9627086659375499</v>
+        <v>0.9717785839467528</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.978423791396291</v>
+        <v>0.9840725915156856</v>
       </c>
       <c r="D5">
-        <v>1.000851898538272</v>
+        <v>1.005232356364963</v>
       </c>
       <c r="E5">
-        <v>0.9848682895719421</v>
+        <v>0.9902606757668951</v>
       </c>
       <c r="F5">
-        <v>0.9559771384066827</v>
+        <v>0.964887236458749</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.036913013082408</v>
+        <v>1.03818575241667</v>
       </c>
       <c r="J5">
-        <v>0.9979250805532042</v>
+        <v>1.003425946718123</v>
       </c>
       <c r="K5">
-        <v>1.010715710375081</v>
+        <v>1.015045012812038</v>
       </c>
       <c r="L5">
-        <v>0.9949235554693319</v>
+        <v>1.000250493367595</v>
       </c>
       <c r="M5">
-        <v>0.9663988159916684</v>
+        <v>0.9751929860047728</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9789339639109265</v>
+        <v>0.9845532168572377</v>
       </c>
       <c r="D6">
-        <v>1.001245768965696</v>
+        <v>1.005603906852584</v>
       </c>
       <c r="E6">
-        <v>0.9853123505473196</v>
+        <v>0.9906767809865954</v>
       </c>
       <c r="F6">
-        <v>0.9566392611115788</v>
+        <v>0.9655024521337245</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.037083961032666</v>
+        <v>1.038350270176514</v>
       </c>
       <c r="J6">
-        <v>0.9983428979691026</v>
+        <v>1.00381588585945</v>
       </c>
       <c r="K6">
-        <v>1.011067315492118</v>
+        <v>1.015374825721242</v>
       </c>
       <c r="L6">
-        <v>0.9953237264043732</v>
+        <v>1.000623399680374</v>
       </c>
       <c r="M6">
-        <v>0.967012184956354</v>
+        <v>0.9757607521484258</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9753970636637253</v>
+        <v>0.9812222600595656</v>
       </c>
       <c r="D7">
-        <v>0.9985153643707531</v>
+        <v>1.003029035653499</v>
       </c>
       <c r="E7">
-        <v>0.9822338675762177</v>
+        <v>0.9877930435948024</v>
       </c>
       <c r="F7">
-        <v>0.9520477833947018</v>
+        <v>0.9612378374439015</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.03589696563335</v>
+        <v>1.03720838355773</v>
       </c>
       <c r="J7">
-        <v>0.9954454331163769</v>
+        <v>1.001112540757652</v>
       </c>
       <c r="K7">
-        <v>1.00862873322286</v>
+        <v>1.013088050615052</v>
       </c>
       <c r="L7">
-        <v>0.9925484760273838</v>
+        <v>0.9980380114385742</v>
       </c>
       <c r="M7">
-        <v>0.9627583981653737</v>
+        <v>0.9718245836818195</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9598304328279396</v>
+        <v>0.9665958218229636</v>
       </c>
       <c r="D8">
-        <v>0.9865055409505576</v>
+        <v>0.9917281491470212</v>
       </c>
       <c r="E8">
-        <v>0.9686881255935931</v>
+        <v>0.975133154110868</v>
       </c>
       <c r="F8">
-        <v>0.9318015475656817</v>
+        <v>0.942482067176491</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.030625590894455</v>
+        <v>1.032151212267571</v>
       </c>
       <c r="J8">
-        <v>0.9826716970872307</v>
+        <v>0.989219467582792</v>
       </c>
       <c r="K8">
-        <v>0.9978714600691672</v>
+        <v>1.003021346131679</v>
       </c>
       <c r="L8">
-        <v>0.9803096320442164</v>
+        <v>0.9866608417472876</v>
       </c>
       <c r="M8">
-        <v>0.9439920523838741</v>
+        <v>0.9545019562034169</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.92865844957891</v>
+        <v>0.9375207092744419</v>
       </c>
       <c r="D9">
-        <v>0.9625107836409733</v>
+        <v>0.9693075607549898</v>
       </c>
       <c r="E9">
-        <v>0.9415914036575688</v>
+        <v>0.9499922893967362</v>
       </c>
       <c r="F9">
-        <v>0.8909862896187881</v>
+        <v>0.9049895117027649</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.019887499115951</v>
+        <v>1.021933945508186</v>
       </c>
       <c r="J9">
-        <v>0.9570089234252352</v>
+        <v>0.965490555173467</v>
       </c>
       <c r="K9">
-        <v>0.976242864566633</v>
+        <v>0.982919036116091</v>
       </c>
       <c r="L9">
-        <v>0.9557089755825128</v>
+        <v>0.963952394368968</v>
       </c>
       <c r="M9">
-        <v>0.90613597690023</v>
+        <v>0.919838312084708</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9042756467764068</v>
+        <v>0.9150576992282725</v>
       </c>
       <c r="D10">
-        <v>0.9438145100945265</v>
+        <v>0.9520442931450224</v>
       </c>
       <c r="E10">
-        <v>0.9204373244310625</v>
+        <v>0.9306048912318564</v>
       </c>
       <c r="F10">
-        <v>0.8586880366700099</v>
+        <v>0.8757457548717932</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.011369198548238</v>
+        <v>1.013934927751297</v>
       </c>
       <c r="J10">
-        <v>0.9368790332001102</v>
+        <v>0.9470997962636374</v>
       </c>
       <c r="K10">
-        <v>0.959278139309595</v>
+        <v>0.9673369685553551</v>
       </c>
       <c r="L10">
-        <v>0.9364087947013197</v>
+        <v>0.9463513184561065</v>
       </c>
       <c r="M10">
-        <v>0.8761823903837002</v>
+        <v>0.8927903691995348</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8924833264419183</v>
+        <v>0.904314053425991</v>
       </c>
       <c r="D11">
-        <v>0.934800745682258</v>
+        <v>0.9438102772121674</v>
       </c>
       <c r="E11">
-        <v>0.9102234562621481</v>
+        <v>0.9213468645887903</v>
       </c>
       <c r="F11">
-        <v>0.8429100642954503</v>
+        <v>0.861645833607909</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.007223710105904</v>
+        <v>1.010086775679746</v>
       </c>
       <c r="J11">
-        <v>0.9271303615635547</v>
+        <v>0.938290566387191</v>
       </c>
       <c r="K11">
-        <v>0.9510666831430444</v>
+        <v>0.9598757867404154</v>
       </c>
       <c r="L11">
-        <v>0.927063281929574</v>
+        <v>0.9379218759397218</v>
       </c>
       <c r="M11">
-        <v>0.8615582213853831</v>
+        <v>0.8797518762683875</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8878678678220473</v>
+        <v>0.9001349369169596</v>
       </c>
       <c r="D12">
-        <v>0.9312783687902362</v>
+        <v>0.940611772245459</v>
       </c>
       <c r="E12">
-        <v>0.9062292143723502</v>
+        <v>0.9177485320943363</v>
       </c>
       <c r="F12">
-        <v>0.8367016837650977</v>
+        <v>0.8561381416992523</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.005597633799747</v>
+        <v>1.008586859281919</v>
       </c>
       <c r="J12">
-        <v>0.9233127843969843</v>
+        <v>0.9348619635728417</v>
       </c>
       <c r="K12">
-        <v>0.9478522482301717</v>
+        <v>0.9569726252708672</v>
       </c>
       <c r="L12">
-        <v>0.923404088941742</v>
+        <v>0.9346415554967482</v>
       </c>
       <c r="M12">
-        <v>0.8558061680067189</v>
+        <v>0.8746598972223139</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8888695869716754</v>
+        <v>0.9010406193240276</v>
       </c>
       <c r="D13">
-        <v>0.9320425749628971</v>
+        <v>0.9413047234826143</v>
       </c>
       <c r="E13">
-        <v>0.9070959366520811</v>
+        <v>0.9185282052469104</v>
       </c>
       <c r="F13">
-        <v>0.8380507985268629</v>
+        <v>0.857332905631905</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.005950703619233</v>
+        <v>1.008912046242702</v>
       </c>
       <c r="J13">
-        <v>0.9241414250756423</v>
+        <v>0.9356050842515505</v>
       </c>
       <c r="K13">
-        <v>0.9485499085912213</v>
+        <v>0.9576018190672825</v>
       </c>
       <c r="L13">
-        <v>0.9241983215554964</v>
+        <v>0.9353525113948766</v>
       </c>
       <c r="M13">
-        <v>0.8570559938545619</v>
+        <v>0.8757644185486632</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8921069767258133</v>
+        <v>0.9039727046874908</v>
       </c>
       <c r="D14">
-        <v>0.9345134066054407</v>
+        <v>0.9435489293815931</v>
       </c>
       <c r="E14">
-        <v>0.9098976867109453</v>
+        <v>0.921052891037881</v>
       </c>
       <c r="F14">
-        <v>0.8424045545135833</v>
+        <v>0.8611964729078219</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.007091187029215</v>
+        <v>1.00996432205915</v>
       </c>
       <c r="J14">
-        <v>0.9268191122111469</v>
+        <v>0.9380105581811979</v>
       </c>
       <c r="K14">
-        <v>0.9508045813423135</v>
+        <v>0.9596386723937698</v>
       </c>
       <c r="L14">
-        <v>0.9267649332958594</v>
+        <v>0.9376539666309047</v>
       </c>
       <c r="M14">
-        <v>0.8610898132269678</v>
+        <v>0.8793364056960195</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8940686099070775</v>
+        <v>0.9057529973430571</v>
       </c>
       <c r="D15">
-        <v>0.9360113247765681</v>
+        <v>0.9449121634526536</v>
       </c>
       <c r="E15">
-        <v>0.9115958256373737</v>
+        <v>0.9225862212197896</v>
       </c>
       <c r="F15">
-        <v>0.8450380185481078</v>
+        <v>0.8635391315464301</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.007781791831402</v>
+        <v>1.010602854577959</v>
       </c>
       <c r="J15">
-        <v>0.9284413452407323</v>
+        <v>0.9394708535209874</v>
       </c>
       <c r="K15">
-        <v>0.9521707074000871</v>
+        <v>0.9608753017309138</v>
       </c>
       <c r="L15">
-        <v>0.9283199502028433</v>
+        <v>0.9390511843418023</v>
       </c>
       <c r="M15">
-        <v>0.863530095854731</v>
+        <v>0.8815024332814811</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9050284574739362</v>
+        <v>0.9157465301262258</v>
       </c>
       <c r="D16">
-        <v>0.9443906077448526</v>
+        <v>0.9525727523430371</v>
       </c>
       <c r="E16">
-        <v>0.9210897731295474</v>
+        <v>0.9311988196248185</v>
       </c>
       <c r="F16">
-        <v>0.8596914547137129</v>
+        <v>0.8766470444721205</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.011633349602845</v>
+        <v>1.014181225537159</v>
       </c>
       <c r="J16">
-        <v>0.9375011146443195</v>
+        <v>0.9476643381514307</v>
       </c>
       <c r="K16">
-        <v>0.9598022537388413</v>
+        <v>0.9678152024677559</v>
       </c>
       <c r="L16">
-        <v>0.9370051986150476</v>
+        <v>0.9468915698607634</v>
       </c>
       <c r="M16">
-        <v>0.8771126751988919</v>
+        <v>0.8936239158667587</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.911543518485236</v>
+        <v>0.9217214422396119</v>
       </c>
       <c r="D17">
-        <v>0.9493795289229001</v>
+        <v>0.9571591705515647</v>
       </c>
       <c r="E17">
-        <v>0.9267381798134959</v>
+        <v>0.9363522062296105</v>
       </c>
       <c r="F17">
-        <v>0.8683575879204322</v>
+        <v>0.8844519850694066</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.013916626468707</v>
+        <v>1.016315193185388</v>
       </c>
       <c r="J17">
-        <v>0.9428833745038848</v>
+        <v>0.9525597252145025</v>
       </c>
       <c r="K17">
-        <v>0.9643374162491164</v>
+        <v>0.9719625000241047</v>
       </c>
       <c r="L17">
-        <v>0.9421654623002413</v>
+        <v>0.9515765084632948</v>
       </c>
       <c r="M17">
-        <v>0.885148167780399</v>
+        <v>0.9008425671779018</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9152287066767596</v>
+        <v>0.9251113108309676</v>
       </c>
       <c r="D18">
-        <v>0.9522039288966423</v>
+        <v>0.959763262995983</v>
       </c>
       <c r="E18">
-        <v>0.9299346133365871</v>
+        <v>0.9392772558053692</v>
       </c>
       <c r="F18">
-        <v>0.8732460398542976</v>
+        <v>0.8888703122593442</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.015205799301823</v>
+        <v>1.01752384823012</v>
       </c>
       <c r="J18">
-        <v>0.9459266168456826</v>
+        <v>0.9553359184725286</v>
       </c>
       <c r="K18">
-        <v>0.9669020468449779</v>
+        <v>0.974314664245293</v>
       </c>
       <c r="L18">
-        <v>0.9450832802481839</v>
+        <v>0.9542334758284896</v>
       </c>
       <c r="M18">
-        <v>0.8896815557904956</v>
+        <v>0.9049291921259247</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9164669697106148</v>
+        <v>0.9262519110647932</v>
       </c>
       <c r="D19">
-        <v>0.9531533440880586</v>
+        <v>0.9606397832310732</v>
       </c>
       <c r="E19">
-        <v>0.9310088770085699</v>
+        <v>0.9402616559604619</v>
       </c>
       <c r="F19">
-        <v>0.8748865313888553</v>
+        <v>0.8903554355946184</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.015638569991688</v>
+        <v>1.017930172293869</v>
       </c>
       <c r="J19">
-        <v>0.9469489773296692</v>
+        <v>0.9562698271110031</v>
       </c>
       <c r="K19">
-        <v>0.9677636685879264</v>
+        <v>0.9751059575394643</v>
       </c>
       <c r="L19">
-        <v>0.946063514914413</v>
+        <v>0.955127291972524</v>
       </c>
       <c r="M19">
-        <v>0.8912029841141045</v>
+        <v>0.9063028380127247</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9108566992585571</v>
+        <v>0.9210904556031323</v>
       </c>
       <c r="D20">
-        <v>0.9488533306376505</v>
+        <v>0.9566746035879298</v>
       </c>
       <c r="E20">
-        <v>0.926142565550153</v>
+        <v>0.9358078402760385</v>
       </c>
       <c r="F20">
-        <v>0.8674454631423785</v>
+        <v>0.8836287961697028</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.01367616616296</v>
+        <v>1.016090045949251</v>
       </c>
       <c r="J20">
-        <v>0.9423160995102614</v>
+        <v>0.9520428686403599</v>
       </c>
       <c r="K20">
-        <v>0.9638593828165651</v>
+        <v>0.9715246022460836</v>
       </c>
       <c r="L20">
-        <v>0.9416215732719052</v>
+        <v>0.9510818571814417</v>
       </c>
       <c r="M20">
-        <v>0.8843023427567991</v>
+        <v>0.9000811903023016</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8911606498343925</v>
+        <v>0.9031148339939379</v>
       </c>
       <c r="D21">
-        <v>0.9337909897713351</v>
+        <v>0.9428921894768314</v>
       </c>
       <c r="E21">
-        <v>0.9090786009952034</v>
+        <v>0.9203141317649017</v>
       </c>
       <c r="F21">
-        <v>0.8411328920842968</v>
+        <v>0.8600667564151723</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.0067579039848</v>
+        <v>1.009656526767692</v>
       </c>
       <c r="J21">
-        <v>0.9260364475199044</v>
+        <v>0.9373068163578632</v>
       </c>
       <c r="K21">
-        <v>0.9501455233065507</v>
+        <v>0.9590427490767796</v>
       </c>
       <c r="L21">
-        <v>0.9260147180110736</v>
+        <v>0.936980641271825</v>
       </c>
       <c r="M21">
-        <v>0.8599115252123687</v>
+        <v>0.8782919111358197</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8773721529718246</v>
+        <v>0.8906935541877636</v>
       </c>
       <c r="D22">
-        <v>0.923280706631968</v>
+        <v>0.9333953991352029</v>
       </c>
       <c r="E22">
-        <v>0.8971538826821753</v>
+        <v>0.9096256800999449</v>
       </c>
       <c r="F22">
-        <v>0.8225067350888254</v>
+        <v>0.843642924808003</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.001893666543887</v>
+        <v>1.005193023972452</v>
       </c>
       <c r="J22">
-        <v>0.914627659643607</v>
+        <v>0.9271125255348823</v>
       </c>
       <c r="K22">
-        <v>0.9405422575697571</v>
+        <v>0.9504127854520259</v>
       </c>
       <c r="L22">
-        <v>0.9150807495722152</v>
+        <v>0.9272285095471251</v>
       </c>
       <c r="M22">
-        <v>0.8426606685940435</v>
+        <v>0.863110933009245</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8848379828879445</v>
+        <v>0.8974002148350931</v>
       </c>
       <c r="D23">
-        <v>0.9289678294619085</v>
+        <v>0.9385201349741438</v>
       </c>
       <c r="E23">
-        <v>0.9036082405404107</v>
+        <v>0.9153947901448034</v>
       </c>
       <c r="F23">
-        <v>0.8326152099044435</v>
+        <v>0.8525265378640369</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.004529217862805</v>
+        <v>1.007604535261551</v>
       </c>
       <c r="J23">
-        <v>0.9208061100411519</v>
+        <v>0.9326178164204675</v>
       </c>
       <c r="K23">
-        <v>0.9457420177617241</v>
+        <v>0.9550726745602265</v>
       </c>
       <c r="L23">
-        <v>0.9210016080654462</v>
+        <v>0.9324946354860215</v>
       </c>
       <c r="M23">
-        <v>0.8520208949207626</v>
+        <v>0.8713213164869571</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9111673950089161</v>
+        <v>0.9213758629571591</v>
       </c>
       <c r="D24">
-        <v>0.949091358837558</v>
+        <v>0.9568937763752323</v>
       </c>
       <c r="E24">
-        <v>0.9264119984853344</v>
+        <v>0.9360540635005281</v>
       </c>
       <c r="F24">
-        <v>0.8678581217079963</v>
+        <v>0.8840011705534472</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.013784950314328</v>
+        <v>1.016191890798392</v>
       </c>
       <c r="J24">
-        <v>0.9425727208655884</v>
+        <v>0.9522766565539061</v>
       </c>
       <c r="K24">
-        <v>0.9640756323922898</v>
+        <v>0.9717226743570925</v>
       </c>
       <c r="L24">
-        <v>0.9418676151040047</v>
+        <v>0.9513056006931294</v>
       </c>
       <c r="M24">
-        <v>0.8846850043077814</v>
+        <v>0.9004256030938486</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9372537822363091</v>
+        <v>0.9455038186231672</v>
       </c>
       <c r="D25">
-        <v>0.9691180173421583</v>
+        <v>0.9754561827162872</v>
       </c>
       <c r="E25">
-        <v>0.9490580738162467</v>
+        <v>0.9568907735382788</v>
       </c>
       <c r="F25">
-        <v>0.9022857416426363</v>
+        <v>0.9153181483625437</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.022868406237506</v>
+        <v>1.024757229012188</v>
       </c>
       <c r="J25">
-        <v>0.9640944435563503</v>
+        <v>0.972015468293208</v>
       </c>
       <c r="K25">
-        <v>0.9822154326956121</v>
+        <v>0.9884478466182575</v>
       </c>
       <c r="L25">
-        <v>0.9625022665115224</v>
+        <v>0.9701973222565364</v>
       </c>
       <c r="M25">
-        <v>0.9166174181029062</v>
+        <v>0.92939058333222</v>
       </c>
     </row>
   </sheetData>
